--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,432 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>版本号</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:0~7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个字节最大能表示的数是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4294967295.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>差不多是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4g.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>所以这个数可以是数据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>block</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>块的最大值</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>版本号</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:0~7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>校验方法</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不开启
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.crc
-2,3:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>保留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>更多信息标识符
-0:表示结束.
-1:表示后续的字节也是该内容的一部分.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>更多信息标识符
-0:表示结束.
-1:表示后续的字节也是该内容的一部分.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UUID(定长32字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ServerId(定长2字节,最多表示5个副本)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,6 +235,10 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID(定长16字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,27 +293,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -742,20 +303,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1003,10 +550,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1021,7 +568,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,139 +589,19 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +613,21 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,6 +635,111 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1562,7 +1109,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1">
@@ -1603,16 +1150,16 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1622,20 +1169,20 @@
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="26"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1645,124 +1192,124 @@
       <c r="B16" s="18">
         <v>34</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
+      <c r="C16" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>66</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>68</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="15">
-        <v>70</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="16">
-        <v>74</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="17">
-        <v>78</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="6">
-        <v>79</v>
-      </c>
-      <c r="C22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1771,7 +1318,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1807,7 +1354,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="42" customHeight="1">
@@ -1848,62 +1395,62 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="24">
+        <v>2</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="60">
-        <v>2</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="62" t="s">
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1911,42 +1458,42 @@
         <v>8</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+    </row>
+    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="50"/>
-    </row>
-    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="53" t="s">
+      <c r="B40" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="55" t="s">
+      <c r="D40" s="32"/>
+      <c r="E40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="58"/>
+      <c r="F40" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1954,61 +1501,73 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="50"/>
+      <c r="D41" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="67" t="s">
+      <c r="A42" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
+      <c r="D42" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="D42:J42"/>
@@ -2017,25 +1576,12 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="F40:J40"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C17:J17"/>
     <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C22:J22"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>storageName(定长32字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time(定长2字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>UUID(定长16字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageNameCode(定长2字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,6 +613,81 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,81 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1">
@@ -1150,16 +1150,16 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1169,20 +1169,20 @@
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="46" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1190,126 +1190,126 @@
         <v>31</v>
       </c>
       <c r="B16" s="18">
-        <v>34</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="19">
-        <v>50</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>52</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="15">
-        <v>54</v>
-      </c>
-      <c r="C19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="16">
-        <v>58</v>
-      </c>
-      <c r="C20" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="17">
-        <v>62</v>
-      </c>
-      <c r="C21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="6">
-        <v>63</v>
-      </c>
-      <c r="C22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1318,7 +1318,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="42" customHeight="1">
@@ -1395,62 +1395,62 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="24">
         <v>2</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
+      <c r="F38" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1458,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" s="69"/>
       <c r="F39" s="69"/>
@@ -1475,25 +1475,25 @@
     </row>
     <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
+      <c r="F40" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1501,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="69"/>
@@ -1518,56 +1518,44 @@
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="D42" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="D42:J42"/>
@@ -1579,6 +1567,18 @@
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,18 +4,497 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>精确到分钟的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>long</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>型日期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ServerId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的长度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个字节最大能表示的数是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4294967295.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>差不多是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4g.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所以这个数可以是数据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>block</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>块的最大值</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验方法</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不开启
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.crc
+2,3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>保留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多信息标识符
+0:表示结束.
+1:表示后续的字节也是该内容的一部分.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多信息标识符
+0:表示结束.
+1:表示后续的字节也是该内容的一部分.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>storageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>serverId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ServerId(定长2字节,最多表示5个副本)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time(定长2字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/brfs/storageName/yyyyMM/dd/hh/mm/uuid_serverId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +702,46 @@
   </si>
   <si>
     <t>storageNameCode(定长2字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(定长5字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica(副本最多5个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverId(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间串(精确到分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27~36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36~45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +749,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +796,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -303,6 +827,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -528,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,10 +1088,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -568,7 +1106,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,16 +1130,16 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -613,13 +1151,115 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,15 +1274,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,96 +1281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,20 +1579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K43"/>
+  <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="10.25" customWidth="1"/>
+    <col min="1" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1064,10 +1605,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1075,7 +1616,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1096,20 +1637,20 @@
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1">
@@ -1150,438 +1691,461 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="18">
         <v>4</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="C16" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="19">
         <v>20</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="C17" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>22</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
+        <v>25</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="15">
+        <v>26</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15">
-        <v>24</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="16">
-        <v>28</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="17">
-        <v>32</v>
-      </c>
-      <c r="C21" s="41" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="42" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3">
+        <v>7</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="24">
+        <v>2</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="G38" s="36"/>
+      <c r="H38" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="45"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6">
-        <v>33</v>
-      </c>
-      <c r="C22" s="53" t="s">
+      <c r="B44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="42" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6</v>
-      </c>
-      <c r="J35" s="3">
-        <v>7</v>
-      </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="24">
-        <v>2</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-    </row>
-    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="55"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C22:J22"/>
+  <mergeCells count="25">
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C19:J19"/>
     <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -417,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="E43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,33 +495,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+  <si>
+    <t>FID组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>storageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>存储空间名称(也可有来区分不同的业务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间串(精确到分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>serverId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>服务标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>offset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前文件所在大文件里的偏移量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储空间名称(也可有来区分不同的业务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件路径:</t>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前文件的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID编码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码中使用定长是用于控制fid的长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,115 +562,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageNameCode(定长2字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID(定长16字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(定长5字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica(副本最多5个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverIdLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27~36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverId(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset(定长4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size(定长4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36~45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/brfs/storageName/yyyyMM/dd/hh/mm/uuid_serverId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中time为时间戳上的后五位(秒与毫秒)对应的数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于time的说明:每天1亿文件,每个5k,共500G,每秒有6M左右,我们一个大文件64M,大概每10s生成一个文件.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件内容编码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面编码中假如一个大文件包含两个小文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">compress </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FID编码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件内容编码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FID组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中time为时间戳上的后五位(秒与毫秒)对应的数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于time的说明:每天1亿文件,每个5k,共500G,每秒有6M左右,我们一个大文件64M,大概每10s生成一个文件.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前文件的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/brfs/storageName/yyyyMM/dd/hh/mm/uuid_serverId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate</t>
+    <t>n~o-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o~p-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p~q-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -645,7 +722,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>describe</t>
+    <t>q~r-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r~s-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s~t-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t~u-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u~v-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -653,95 +746,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n~o-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p~q-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q~r-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面编码中假如一个大文件包含两个小文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码中使用定长是用于控制fid的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~n-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o~p-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID(定长16字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storageNameCode(定长2字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(定长5字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica(副本最多5个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverId(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间串(精确到分钟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27~36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31~40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35~44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36~45</t>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,13 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1150,78 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,6 +1231,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,93 +1286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K44"/>
+  <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1592,71 +1597,71 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1686,200 +1691,200 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="C14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17">
+        <v>20</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10">
+        <v>25</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13">
+        <v>26</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="49" t="s">
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="49" t="s">
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="18">
-        <v>4</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19">
-        <v>20</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11">
-        <v>25</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="15">
-        <v>26</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1895,7 +1900,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1905,23 +1910,23 @@
     </row>
     <row r="30" spans="1:10">
       <c r="B30" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="42" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1951,172 +1956,265 @@
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C37" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="60"/>
+      <c r="C37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="22">
+        <v>2</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="24">
-        <v>2</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36" t="s">
+      <c r="G38" s="65"/>
+      <c r="H38" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="64"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="B48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
-    </row>
-    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="45"/>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="E15:G15"/>
@@ -2125,23 +2223,6 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -20,247 +20,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>版本号</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:0~7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>精确到分钟的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>long</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>型日期</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ServerId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的长度</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个字节最大能表示的数是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4294967295.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>差不多是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4g.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>所以这个数可以是数据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>block</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>块的最大值</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C38" authorId="0">
       <text>
         <r>
@@ -495,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,10 +433,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">        位
+字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>validate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>describe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +470,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>moreFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,11 +530,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>validateLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v~w-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>validate(变长)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +960,63 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1026,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,15 +1074,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,72 +1093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1696,16 +1503,16 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1715,20 +1522,20 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="51"/>
+      <c r="E15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="41" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1738,16 +1545,16 @@
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
@@ -1756,16 +1563,16 @@
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1774,16 +1581,16 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="26" t="s">
@@ -1792,18 +1599,18 @@
       <c r="B19" s="13">
         <v>26</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="26" t="s">
@@ -1812,16 +1619,16 @@
       <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="14" t="s">
@@ -1830,16 +1637,16 @@
       <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="15" t="s">
@@ -1848,16 +1655,16 @@
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -1866,16 +1673,16 @@
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
@@ -1926,7 +1733,7 @@
     <row r="36" spans="1:11" ht="42" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
@@ -1956,265 +1763,263 @@
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7">
         <v>1</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
+      <c r="C37" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="21" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B38" s="22">
         <v>2</v>
       </c>
-      <c r="C38" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="68"/>
+      <c r="C38" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="61"/>
+        <v>52</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="46"/>
       <c r="E39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+        <v>54</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="61"/>
+        <v>63</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="46"/>
       <c r="E43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
+        <v>54</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
+        <v>56</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="64"/>
-    </row>
-    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
+        <v>54</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
+  <mergeCells count="30">
+    <mergeCell ref="C49:J49"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="E15:G15"/>
@@ -2223,6 +2028,27 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C44:J44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C38" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,207 +45,320 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>校验方法</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>:
+          <t xml:space="preserve">
 0:</t>
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">不开启
+          <t xml:space="preserve">不压缩
 </t>
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1.crc
-2,3:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>保留</t>
+          <t>预留</t>
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
+          <t>精确到分钟的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
+          <t>long</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t>型日期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
+          <t>个字节最大能表示的数是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>更多信息标识符
-0:表示结束.
-1:表示后续的字节也是该内容的一部分.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C43" authorId="0">
-      <text>
-        <r>
-          <rPr>
+          </rPr>
+          <t>4294967295.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
+          <t>差不多是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">4g.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t>所以这个数可以是数据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
+          <t>block</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>预留</t>
+          <t>块的最大值</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">更多信息标识符
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>更多信息标识符
-0:表示结束.
-1:表示后续的字节也是该内容的一部分.</t>
+          <t>表示结束</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示后续的字节也是该内容的一部分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>serverId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最多占两个字节</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>取值范围为</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0~16383</t>
         </r>
       </text>
     </comment>
@@ -254,7 +367,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,91 +434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storageNameCode(定长2字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID(定长16字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(定长5字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica(副本最多5个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverIdLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27~36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverId(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31~40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35~44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>size(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,6 +580,66 @@
   </si>
   <si>
     <t>0xDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica(副本最多5个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageNameCode(定长2字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID(定长16字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(定长5字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset(定长4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34~44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverId(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +723,6 @@
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -875,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,10 +1039,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,6 +1072,33 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,33 +1108,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,24 +1117,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,9 +1126,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1135,18 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,18 +1154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1498,81 +1568,81 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="C14" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>18</v>
+      <c r="A15" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="59"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
+      <c r="C16" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="C17" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1581,474 +1651,454 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="14">
+        <v>29</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="15">
+        <v>33</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="42" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="13">
-        <v>26</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="B37" s="22">
+        <v>2</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="29" t="s">
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C38" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="72"/>
-    </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="F38" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="42" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3">
-        <v>4</v>
-      </c>
-      <c r="H36" s="3">
-        <v>5</v>
-      </c>
-      <c r="I36" s="3">
-        <v>6</v>
-      </c>
-      <c r="J36" s="3">
-        <v>7</v>
-      </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="22">
-        <v>2</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="5"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-    </row>
-    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="34"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
+      <c r="A46" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="37"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+    </row>
+    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C49:J49"/>
+  <mergeCells count="28">
+    <mergeCell ref="C48:J48"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C36:J36"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
@@ -14,360 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>版本号</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:0~7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>精确到分钟的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>long</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>型日期</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>个字节最大能表示的数是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4294967295.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>差不多是</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4g.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>所以这个数可以是数据</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>block</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>块的最大值</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">更多信息标识符
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示结束</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.
-1:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示后续的字节也是该内容的一部分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>每个</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>serverId</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>最多占两个字节</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>取值范围为</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0~16383</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,30 +203,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u~v-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validateLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v~w-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0xDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +268,18 @@
   </si>
   <si>
     <t>35~45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate(定长8字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,27 +334,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -725,13 +344,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -957,7 +569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,10 +591,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -991,7 +603,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,16 +627,16 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,9 +645,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,124 +654,124 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:K47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1573,76 +1182,76 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
+      <c r="C14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="31"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
+      <c r="C16" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
+      <c r="C17" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1651,90 +1260,90 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="C18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="C19" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1820,16 +1429,16 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1839,20 +1448,20 @@
       <c r="B37" s="22">
         <v>2</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44" t="s">
+      <c r="G37" s="64"/>
+      <c r="H37" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="46"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1862,77 +1471,77 @@
       <c r="B38" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="62"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="18" t="s">
@@ -1941,137 +1550,129 @@
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
+    </row>
+    <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="35" t="s">
+      <c r="B47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-    </row>
-    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="49"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C48:J48"/>
+  <mergeCells count="27">
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C47:J47"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
@@ -2083,26 +1684,12 @@
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C46:J46"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="D40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="6465"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验方法</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:crc</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1,2,3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>保留</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,75 +200,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica(副本最多5个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storageNameCode(定长2字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID(定长16字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(定长5字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset(定长4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34~44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverId(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validateFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n~o-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o~p-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p~q-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q~r-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r~s-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s~t-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t~u-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u~v-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v~w-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>validate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~n-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n~o-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o~p-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p~q-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q~r-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r~s-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s~t-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t~u-1</t>
+    <t>w+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate(定长8字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -207,79 +368,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0xDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replica(副本最多5个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storageNameCode(定长2字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID(定长16字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(定长5字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34~44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverId(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate(定长8字节)</t>
+    <t>validateType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +442,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,13 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,130 +742,163 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,15 +908,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K47"/>
+  <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1182,76 +1324,76 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
+      <c r="C14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="C16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="C17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1260,90 +1402,90 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="C18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="C19" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1429,267 +1571,314 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="19">
         <v>2</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="70"/>
+      <c r="H37" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="62"/>
+      <c r="A38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
+      <c r="A39" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
+      <c r="A40" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51"/>
-    </row>
-    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51"/>
+      <c r="A41" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51"/>
+      <c r="A44" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51"/>
+      <c r="A45" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="55" t="s">
+      <c r="A46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
+      <c r="C47" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C45:J45"/>
+  <mergeCells count="29">
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C46:J46"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F38:J38"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C44:J44"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C36:J36"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C39:J39"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="D21:J21"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="D40:J40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -14,77 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>校验方法</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:
-0:crc</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1,2,3:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>保留</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +140,6 @@
   </si>
   <si>
     <t>0xDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica(副本最多5个)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -384,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,21 +368,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -781,6 +693,51 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,10 +747,22 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,18 +771,6 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,24 +789,9 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,36 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:J39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1324,16 +1236,16 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
+      <c r="C14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1343,57 +1255,57 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="C16" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="C17" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1402,90 +1314,90 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="C18" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="C19" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1571,16 +1483,16 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1590,262 +1502,275 @@
       <c r="B37" s="19">
         <v>2</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="C38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="24" t="s">
+      <c r="F38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="G38" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="C40" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="28" t="s">
+      <c r="F43" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="G43" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="35"/>
+        <v>63</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="D21:J21"/>
     <mergeCell ref="D45:J45"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="C48:J48"/>
@@ -1862,23 +1787,9 @@
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="G38:J38"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -14,8 +14,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验方法</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:crc</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1,2,3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>保留</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>FID组成</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +209,10 @@
   </si>
   <si>
     <t>0xDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replica(副本最多5个)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -311,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +441,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -693,13 +781,109 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,42 +895,9 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,69 +914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1236,16 +1324,16 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="C14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1255,57 +1343,57 @@
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="42"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="C16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="C17" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -1314,90 +1402,90 @@
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="C18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="C19" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
+      <c r="D21" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
@@ -1483,16 +1571,16 @@
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -1502,275 +1590,262 @@
       <c r="B37" s="19">
         <v>2</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="70"/>
+      <c r="H37" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="48"/>
+      <c r="C38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="33"/>
       <c r="E38" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
+      <c r="G38" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
+      <c r="C39" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="48"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="48"/>
+      <c r="C41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="48"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="33"/>
+        <v>61</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="35"/>
       <c r="E43" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
+      <c r="G43" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+        <v>62</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="33"/>
+        <v>64</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="36"/>
+      <c r="C48" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="39"/>
+      <c r="C49" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="D21:J21"/>
     <mergeCell ref="D45:J45"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="C48:J48"/>
@@ -1787,9 +1862,23 @@
     <mergeCell ref="C41:J41"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="G38:J38"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="D21:J21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21975" windowHeight="6465"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="数据编码" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -20,6 +20,373 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>精确到分钟的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>long</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>型日期</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个字节最大能表示的数是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4294967295.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>差不多是</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4g.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所以这个数可以是数据</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>block</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>块的最大值</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">更多信息标识符
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示结束</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示后续的字节也是该内容的一部分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>每个</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>serverId</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最多占两个字节</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>取值范围为</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0~16383</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F37" authorId="0">
       <text>
         <r>
@@ -76,6 +443,383 @@
             <charset val="134"/>
           </rPr>
           <t>保留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一条数据的长度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验开关:
+0:表示关闭.
+1:开启.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多信息标识符
+0:表示结束.
+1:表示后续的字节也是该内容的一部分.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前小文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果开关是关闭状态</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不会占用空间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一条数据的长度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验开关:
+0:表示关闭.
+1:开启.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多信息标识符
+0:表示结束.
+1:表示后续的字节也是该内容的一部分.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前小文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果开关是关闭状态</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不会占用空间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>整个大文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>占用定长</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字节</t>
         </r>
       </text>
     </comment>
@@ -84,65 +828,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
-  <si>
-    <t>FID组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>storageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>serverId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前文件所在大文件里的偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>存储空间名称(也可有来区分不同的业务)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间串(精确到分钟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前文件所在大文件里的偏移量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前文件的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FID编码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码中使用定长是用于控制fid的长度</t>
+    <t>文件路径:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,27 +863,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compress </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID编码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件内容编码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中time为时间戳上的后五位(秒与毫秒)对应的数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于time的说明:每天1亿文件,每个5k,共500G,每秒有6M左右,我们一个大文件64M,大概每10s生成一个文件.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前文件的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset(定长4byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>size(定长4byte)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件路径:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/brfs/storageName/yyyyMM/dd/hh/mm/uuid_serverId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其中time为时间戳上的后五位(秒与毫秒)对应的数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于time的说明:每天1亿文件,每个5k,共500G,每秒有6M左右,我们一个大文件64M,大概每10s生成一个文件.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件内容编码:</t>
+    <t>validate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n~o-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p~q-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q~r-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,16 +987,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        位
-字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAC</t>
+    <t>编码中使用定长是用于控制fid的长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,27 +995,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reserve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replica(副本最多5个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
+    <t>description(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o~p-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID(定长16字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,35 +1019,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID(定长16字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time(定长5字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset(定长4byte)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
+    <t>serverId(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间串(精确到分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r~s-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s~t-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t~u-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,123 +1051,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35~45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate(定长8字节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validateFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u~v-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v~w-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>moreFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverId(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~n-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compress </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validateFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descriptionLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n~o-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o~p-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contentLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p~q-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q~r-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r~s-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s~t-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t~u-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u~v-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v~w-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validate(定长8字节)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validateType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +1107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +1154,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -443,11 +1187,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -687,7 +1430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,10 +1452,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -721,7 +1464,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,10 +1485,10 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,19 +1497,16 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,102 +1521,132 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,35 +1656,14 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1212,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K49"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:J39"/>
+      <selection activeCell="D44" sqref="D44:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1225,71 +1974,71 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1319,182 +2068,182 @@
     </row>
     <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
+      <c r="C14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>26</v>
+      <c r="A15" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="51" t="s">
+      <c r="C15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="C16" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="C17" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="C18" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B19" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="C19" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B20" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="C20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>7</v>
+      <c r="A21" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+        <v>14</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+        <v>55</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1510,7 +2259,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1520,23 +2269,23 @@
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="42" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
@@ -1566,315 +2315,353 @@
     </row>
     <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
+      <c r="C36" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B37" s="19">
         <v>2</v>
       </c>
-      <c r="C37" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
+      <c r="C37" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="24" t="s">
+      <c r="A38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="70"/>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="74" t="s">
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="70"/>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="70"/>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="70"/>
+    </row>
+    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="C45" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C46" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="27" t="s">
+      <c r="C47" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="33"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33"/>
-    </row>
-    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="28" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="61"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-    </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="50"/>
+      <c r="C51" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D44:J44"/>
     <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D49:J49"/>
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/文件系统数据编码.xlsx
+++ b/doc/文件系统数据编码.xlsx
@@ -20,7 +20,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="D23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,21 +373,110 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>版本号</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:0~7</t>
+          <t xml:space="preserve">更多信息标识符
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示结束</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+1:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示后续的字节也是该内容的一部分</t>
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0">
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>duration内容的长度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>存储数据时时间目录的粒度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,22 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>一条数据的长度</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="D41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="F41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0">
+    <comment ref="G41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,134 +620,6 @@
           <t>更多信息标识符
 0:表示结束.
 1:表示后续的字节也是该内容的一部分.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>当前小文件的校验码</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果开关是关闭状态</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不会占用空间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>一条数据的长度</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C45" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单条数据是否开启压缩</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">不压缩
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:gzip
-2.snappy
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>预留</t>
         </r>
       </text>
     </comment>
@@ -681,6 +627,119 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前小文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果开关是关闭状态</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不会占用空间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F46" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
@@ -693,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="G46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +825,293 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="D51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>整个大文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>占用定长</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字节</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>版本号</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:0~7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验方法</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+0:crc</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1,2,3:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>保留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单条数据是否开启压缩</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不压缩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:gzip
+2.snappy
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>预留</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>校验开关:
+0:表示关闭.
+1:开启.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>更多信息标识符
+0:表示结束.
+1:表示后续的字节也是该内容的一部分.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E74" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前小文件的校验码</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果开关是关闭状态</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不会占用空间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -828,7 +1173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>storageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,14 +1392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34~44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>validate(定长8字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,15 +1428,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dataLength(变长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreFlag</t>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationLength(变长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间目录的粒度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34~n-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1554,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,8 +1649,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1418,6 +1777,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1430,7 +1802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,6 +1881,9 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1521,149 +1896,161 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1961,707 +2348,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K51"/>
+  <dimension ref="B2:L76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:J44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="12.375" customWidth="1"/>
+    <col min="2" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
+    <row r="3" spans="2:12">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
+    <row r="4" spans="2:12">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" t="s">
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="9" spans="2:12">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
+    <row r="12" spans="2:12">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="2:12" ht="42" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I14" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K14" s="3">
         <v>7</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="D15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="22" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11">
+      <c r="C16" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="52" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="52" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="16">
+      <c r="C17" s="16">
         <v>4</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="17">
+      <c r="C18" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="D18" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="C19" s="10">
         <v>25</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="D19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="14">
+      <c r="C20" s="14">
         <v>29</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="15" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+    </row>
+    <row r="21" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="15">
+      <c r="C21" s="15">
         <v>33</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="D21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+    </row>
+    <row r="22" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C22" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="82"/>
+      <c r="C24" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="42" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4</v>
+      </c>
+      <c r="I38" s="3">
+        <v>5</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6</v>
+      </c>
+      <c r="K38" s="3">
+        <v>7</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="19">
+        <v>2</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="67"/>
+      <c r="F41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="67"/>
+    </row>
+    <row r="43" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="67"/>
+    </row>
+    <row r="44" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="67"/>
+    </row>
+    <row r="45" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="67"/>
+    </row>
+    <row r="46" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
+    </row>
+    <row r="48" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
+    </row>
+    <row r="49" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
+    </row>
+    <row r="51" spans="2:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="58"/>
+    </row>
+    <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
+    </row>
+    <row r="67" spans="2:12" ht="42" customHeight="1">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3">
+        <v>5</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6</v>
+      </c>
+      <c r="K67" s="3">
+        <v>7</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="19">
+        <v>2</v>
+      </c>
+      <c r="D69" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="62"/>
+      <c r="I69" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="64"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="67"/>
+      <c r="F70" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="74"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="H70" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="67"/>
+    </row>
+    <row r="72" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="67"/>
+    </row>
+    <row r="73" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="67"/>
+    </row>
+    <row r="74" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="67"/>
+    </row>
+    <row r="75" spans="2:12" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="58"/>
+    </row>
+    <row r="76" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="62" t="s">
+      <c r="C76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="42" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>6</v>
-      </c>
-      <c r="J35" s="3">
-        <v>7</v>
-      </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="19">
-        <v>2</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="70"/>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="70"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="70"/>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="70"/>
-    </row>
-    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="58"/>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
-    </row>
-    <row r="49" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58"/>
-    </row>
-    <row r="50" spans="1:10" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="61"/>
-    </row>
-    <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="64"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
+  <mergeCells count="44">
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D75:K75"/>
+    <mergeCell ref="D71:K71"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="D73:K73"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="D68:K68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
